--- a/media/file_form_template/客戶公司管理樣板.xlsx
+++ b/media/file_form_template/客戶公司管理樣板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>客戶簡稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期格式: YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -472,6 +488,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
